--- a/data/trans_bre/CoTrAQ_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R2-Estudios-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8011049342917946</v>
+        <v>-1.776207043633891</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.66149846623065</v>
+        <v>-8.880491277744479</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.0767306870211065</v>
+        <v>-0.158650321784272</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2253086193293575</v>
+        <v>-0.2206182429005114</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.29108147601628</v>
+        <v>17.52635908834241</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.35422443023575</v>
+        <v>19.76162279597146</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2.249050800641039</v>
+        <v>1.984833674220659</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.6290060672972903</v>
+        <v>0.6474954828317109</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.379147145116011</v>
+        <v>-1.121798850065598</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.218980414521232</v>
+        <v>1.038290415756609</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.08631504900686393</v>
+        <v>-0.06942563642374917</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03310540223542807</v>
+        <v>0.03595254804326658</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.301908289973509</v>
+        <v>7.202829889485182</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.40950783389809</v>
+        <v>10.53354533514424</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5288836161340076</v>
+        <v>0.5090140735148736</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4341054022771796</v>
+        <v>0.4449045805495656</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9104352023928498</v>
+        <v>-0.2113639170233726</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9265112470639896</v>
+        <v>-0.5335825109961139</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1262299440051039</v>
+        <v>-0.04778153887975721</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.05048977177912451</v>
+        <v>-0.03857384159508499</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.89483015015515</v>
+        <v>10.55042525883261</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.20177899114586</v>
+        <v>11.44969860634095</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.73351570328022</v>
+        <v>1.810830067291322</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.8396605948858763</v>
+        <v>0.9217657346900735</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6336903077521903</v>
+        <v>0.7295338830863487</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.078418428185441</v>
+        <v>1.130456373663802</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.04361786685625489</v>
+        <v>0.04752195705637877</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04369654604410091</v>
+        <v>0.04497798023167538</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.08312680703843</v>
+        <v>7.187133060169526</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.774563607543506</v>
+        <v>8.298626784029278</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5905046047805359</v>
+        <v>0.5972989576314154</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3978074393369051</v>
+        <v>0.3695580313352622</v>
       </c>
     </row>
     <row r="16">
